--- a/statistics/SPSS/roiHumanBody_Within-PLI_delta/roiHumanBody_Within-PLI_delta.xlsx
+++ b/statistics/SPSS/roiHumanBody_Within-PLI_delta/roiHumanBody_Within-PLI_delta.xlsx
@@ -82,8 +82,8 @@
     <col min="1" max="1" width="15.42578125" customWidth="true"/>
     <col min="2" max="2" width="16.42578125" customWidth="true"/>
     <col min="3" max="3" width="15.42578125" customWidth="true"/>
-    <col min="4" max="4" width="14.7109375" customWidth="true"/>
-    <col min="5" max="5" width="15.42578125" customWidth="true"/>
+    <col min="4" max="4" width="15.42578125" customWidth="true"/>
+    <col min="5" max="5" width="16.42578125" customWidth="true"/>
     <col min="6" max="6" width="16.42578125" customWidth="true"/>
   </cols>
   <sheetData>
@@ -109,582 +109,582 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.041948198198198172</v>
+        <v>-0.020974099099099086</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.10084976751643421</v>
+        <v>-0.050424883758217104</v>
       </c>
       <c r="C2" s="0">
-        <v>-0.015137596257140895</v>
+        <v>-0.0075687981285704475</v>
       </c>
       <c r="D2" s="0">
-        <v>0.080876795162509507</v>
+        <v>0.040438397581254754</v>
       </c>
       <c r="E2" s="0">
-        <v>-0.04775368480725628</v>
+        <v>-0.02387684240362814</v>
       </c>
       <c r="F2" s="0">
-        <v>0.057476206857011825</v>
+        <v>0.028738103428505912</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.03180654978040609</v>
+        <v>0.015903274890203045</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.048328220176959646</v>
+        <v>-0.024164110088479823</v>
       </c>
       <c r="C3" s="0">
-        <v>0.094473344893512945</v>
+        <v>0.047236672446756472</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.079287270463741122</v>
+        <v>-0.039643635231870561</v>
       </c>
       <c r="E3" s="0">
-        <v>0.036959228135698741</v>
+        <v>0.01847961406784937</v>
       </c>
       <c r="F3" s="0">
-        <v>0.085063850101444072</v>
+        <v>0.042531925050722036</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.050521109344638715</v>
+        <v>-0.025260554672319357</v>
       </c>
       <c r="B4" s="0">
-        <v>0.021971595655806142</v>
+        <v>0.010985797827903071</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.040744667937650469</v>
+        <v>-0.020372333968825235</v>
       </c>
       <c r="D4" s="0">
-        <v>0.025799303577081267</v>
+        <v>0.012899651788540634</v>
       </c>
       <c r="E4" s="0">
-        <v>0.097168074507255953</v>
+        <v>0.048584037253627976</v>
       </c>
       <c r="F4" s="0">
-        <v>0.073758740425407199</v>
+        <v>0.036879370212703599</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.016708545279973785</v>
+        <v>-0.0083542726399868927</v>
       </c>
       <c r="B5" s="0">
-        <v>-0.024243760354871413</v>
+        <v>-0.012121880177435707</v>
       </c>
       <c r="C5" s="0">
-        <v>0.027806444215112969</v>
+        <v>0.013903222107556484</v>
       </c>
       <c r="D5" s="0">
-        <v>0.013053818609374213</v>
+        <v>0.0065269093046871063</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.13513947245564889</v>
+        <v>-0.067569736227824445</v>
       </c>
       <c r="F5" s="0">
-        <v>0.043556479830989758</v>
+        <v>0.021778239915494879</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.013674847008180446</v>
+        <v>-0.0068374235040902231</v>
       </c>
       <c r="B6" s="0">
-        <v>-0.01855407634977535</v>
+        <v>-0.0092770381748876751</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.053342953342953359</v>
+        <v>-0.026671476671476679</v>
       </c>
       <c r="D6" s="0">
-        <v>0.018990559186637279</v>
+        <v>0.0094952795933186396</v>
       </c>
       <c r="E6" s="0">
-        <v>0.095609895609895634</v>
+        <v>0.047804947804947817</v>
       </c>
       <c r="F6" s="0">
-        <v>-0.042198944976722608</v>
+        <v>-0.021099472488361304</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.04723316227075619</v>
+        <v>0.023616581135378095</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.00041498080713769925</v>
+        <v>-0.00020749040356884962</v>
       </c>
       <c r="C7" s="0">
-        <v>-0.027733361066694384</v>
+        <v>-0.013866680533347192</v>
       </c>
       <c r="D7" s="0">
-        <v>0.072486772486772488</v>
+        <v>0.036243386243386244</v>
       </c>
       <c r="E7" s="0">
-        <v>0.089477040816326514</v>
+        <v>0.044738520408163257</v>
       </c>
       <c r="F7" s="0">
-        <v>0.056848912404467988</v>
+        <v>0.028424456202233994</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.11108377284847881</v>
+        <v>0.055541886424239406</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.0045561434450325233</v>
+        <v>-0.0022780717225162617</v>
       </c>
       <c r="C8" s="0">
-        <v>0.049034181573864188</v>
+        <v>0.024517090786932094</v>
       </c>
       <c r="D8" s="0">
-        <v>-0.059710351377017967</v>
+        <v>-0.029855175688508984</v>
       </c>
       <c r="E8" s="0">
-        <v>0.030595902024473376</v>
+        <v>0.015297951012236688</v>
       </c>
       <c r="F8" s="0">
-        <v>0.066440696649029907</v>
+        <v>0.033220348324514953</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.030370670995670868</v>
+        <v>-0.015185335497835434</v>
       </c>
       <c r="B9" s="0">
-        <v>0.081359568917172609</v>
+        <v>0.040679784458586304</v>
       </c>
       <c r="C9" s="0">
-        <v>-0.050446104367672884</v>
+        <v>-0.025223052183836442</v>
       </c>
       <c r="D9" s="0">
-        <v>0.013922482573276329</v>
+        <v>0.0069612412866381645</v>
       </c>
       <c r="E9" s="0">
-        <v>0.074316932160069404</v>
+        <v>0.037158466080034702</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.0048075435502336061</v>
+        <v>-0.0024037717751168031</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.040307234004712977</v>
+        <v>-0.020153617002356489</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.14090782511835143</v>
+        <v>-0.070453912559175713</v>
       </c>
       <c r="C10" s="0">
-        <v>-0.047706890564033433</v>
+        <v>-0.023853445282016716</v>
       </c>
       <c r="D10" s="0">
-        <v>0.058309990662931799</v>
+        <v>0.029154995331465899</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.034073756295978586</v>
+        <v>-0.017036878147989293</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.0057445200302343458</v>
+        <v>-0.0028722600151171729</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.069661511328178161</v>
+        <v>0.03483075566408908</v>
       </c>
       <c r="B11" s="0">
-        <v>0.089529379003063292</v>
+        <v>0.044764689501531646</v>
       </c>
       <c r="C11" s="0">
-        <v>-0.0043615043615043425</v>
+        <v>-0.0021807521807521713</v>
       </c>
       <c r="D11" s="0">
-        <v>0.041137566137566028</v>
+        <v>0.020568783068783014</v>
       </c>
       <c r="E11" s="0">
-        <v>0.015013227513227589</v>
+        <v>0.0075066137566137947</v>
       </c>
       <c r="F11" s="0">
-        <v>0.062146701035590002</v>
+        <v>0.031073350517795001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.032401159594142082</v>
+        <v>-0.016200579797071041</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.0035716395365518738</v>
+        <v>-0.0017858197682759369</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.062509448223733888</v>
+        <v>-0.031254724111866944</v>
       </c>
       <c r="D12" s="0">
-        <v>0.16985519353940409</v>
+        <v>0.084927596769702046</v>
       </c>
       <c r="E12" s="0">
-        <v>0.02691282077246987</v>
+        <v>0.013456410386234935</v>
       </c>
       <c r="F12" s="0">
-        <v>0.051282051282051211</v>
+        <v>0.025641025641025605</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.079534662867996375</v>
+        <v>-0.039767331433998188</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.029870942370942399</v>
+        <v>-0.0149354711854712</v>
       </c>
       <c r="C13" s="0">
-        <v>-0.06257658033973823</v>
+        <v>-0.031288290169869115</v>
       </c>
       <c r="D13" s="0">
-        <v>0.027447089947089998</v>
+        <v>0.013723544973544999</v>
       </c>
       <c r="E13" s="0">
-        <v>0.037087912087912012</v>
+        <v>0.018543956043956006</v>
       </c>
       <c r="F13" s="0">
-        <v>0.021692407657319945</v>
+        <v>0.010846203828659973</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0076530612244897767</v>
+        <v>0.0038265306122448883</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.039021164021163957</v>
+        <v>-0.019510582010581978</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.049324835039120773</v>
+        <v>-0.024662417519560387</v>
       </c>
       <c r="D14" s="0">
-        <v>0.094239197180373768</v>
+        <v>0.047119598590186884</v>
       </c>
       <c r="E14" s="0">
-        <v>-0.0035035035035034245</v>
+        <v>-0.0017517517517517123</v>
       </c>
       <c r="F14" s="0">
-        <v>-0.027951472395916832</v>
+        <v>-0.013975736197958416</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.0050721717388383381</v>
+        <v>0.002536085869419169</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.042270445048222804</v>
+        <v>-0.021135222524111402</v>
       </c>
       <c r="C15" s="0">
-        <v>0.030262163344870141</v>
+        <v>0.015131081672435071</v>
       </c>
       <c r="D15" s="0">
-        <v>-0.050546787388892622</v>
+        <v>-0.025273393694446311</v>
       </c>
       <c r="E15" s="0">
-        <v>-0.049234171783191449</v>
+        <v>-0.024617085891595725</v>
       </c>
       <c r="F15" s="0">
-        <v>0.043655638893734139</v>
+        <v>0.021827819446867069</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.037922843478399026</v>
+        <v>-0.018961421739199513</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.063192703982177634</v>
+        <v>-0.031596351991088817</v>
       </c>
       <c r="C16" s="0">
-        <v>0.057585057585057609</v>
+        <v>0.028792528792528804</v>
       </c>
       <c r="D16" s="0">
-        <v>-0.055555555555555691</v>
+        <v>-0.027777777777777846</v>
       </c>
       <c r="E16" s="0">
-        <v>0.024455191121857844</v>
+        <v>0.012227595560928922</v>
       </c>
       <c r="F16" s="0">
-        <v>-0.089778503994190351</v>
+        <v>-0.044889251997095175</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.19495884773662542</v>
+        <v>0.097479423868312709</v>
       </c>
       <c r="B17" s="0">
-        <v>-0.025925925925925908</v>
+        <v>-0.012962962962962954</v>
       </c>
       <c r="C17" s="0">
-        <v>-0.091162591162591122</v>
+        <v>-0.045581295581295561</v>
       </c>
       <c r="D17" s="0">
-        <v>-0.040619373952707372</v>
+        <v>-0.020309686976353686</v>
       </c>
       <c r="E17" s="0">
-        <v>0.014943514943515035</v>
+        <v>0.0074717574717575175</v>
       </c>
       <c r="F17" s="0">
-        <v>0.02084624306846522</v>
+        <v>0.01042312153423261</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.14479485751415583</v>
+        <v>-0.072397428757077914</v>
       </c>
       <c r="B18" s="0">
-        <v>-0.0046584715757647666</v>
+        <v>-0.0023292357878823833</v>
       </c>
       <c r="C18" s="0">
-        <v>0.016996922225680444</v>
+        <v>0.0084984611128402221</v>
       </c>
       <c r="D18" s="0">
-        <v>0.15911079146373258</v>
+        <v>0.079555395731866291</v>
       </c>
       <c r="E18" s="0">
-        <v>0.049248341311833421</v>
+        <v>0.024624170655916711</v>
       </c>
       <c r="F18" s="0">
-        <v>-0.015862517846644775</v>
+        <v>-0.0079312589233223874</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.078571428571428736</v>
+        <v>0.039285714285714368</v>
       </c>
       <c r="B19" s="0">
-        <v>-0.0088338129273803356</v>
+        <v>-0.0044169064636901678</v>
       </c>
       <c r="C19" s="0">
-        <v>0.029605001827224142</v>
+        <v>0.014802500913612071</v>
       </c>
       <c r="D19" s="0">
-        <v>-0.024227234753550542</v>
+        <v>-0.012113617376775271</v>
       </c>
       <c r="E19" s="0">
-        <v>0.03658810325476991</v>
+        <v>0.018294051627384955</v>
       </c>
       <c r="F19" s="0">
-        <v>0.083119986345792651</v>
+        <v>0.041559993172896326</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.016074577979340032</v>
+        <v>0.0080372889896700161</v>
       </c>
       <c r="B20" s="0">
-        <v>0.023256339045812646</v>
+        <v>0.011628169522906323</v>
       </c>
       <c r="C20" s="0">
-        <v>0.026878985212318518</v>
+        <v>0.013439492606159259</v>
       </c>
       <c r="D20" s="0">
-        <v>-0.015880996273153092</v>
+        <v>-0.0079404981365765459</v>
       </c>
       <c r="E20" s="0">
-        <v>-0.036833536833536795</v>
+        <v>-0.018416768416768398</v>
       </c>
       <c r="F20" s="0">
-        <v>-0.0066804499577609588</v>
+        <v>-0.0033402249788804794</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.062942062942063004</v>
+        <v>0.031471031471031502</v>
       </c>
       <c r="B21" s="0">
-        <v>-0.043852508764789411</v>
+        <v>-0.021926254382394705</v>
       </c>
       <c r="C21" s="0">
-        <v>0.22242572242572245</v>
+        <v>0.11121286121286122</v>
       </c>
       <c r="D21" s="0">
-        <v>0.12970817356782266</v>
+        <v>0.06485408678391133</v>
       </c>
       <c r="E21" s="0">
-        <v>0.043142578668894538</v>
+        <v>0.021571289334447269</v>
       </c>
       <c r="F21" s="0">
-        <v>0.015596182262848812</v>
+        <v>0.0077980911314244061</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.14551526316232188</v>
+        <v>0.072757631581160942</v>
       </c>
       <c r="B22" s="0">
-        <v>-0.088973398001175763</v>
+        <v>-0.044486699000587882</v>
       </c>
       <c r="C22" s="0">
-        <v>-0.0076584295334295449</v>
+        <v>-0.0038292147667147725</v>
       </c>
       <c r="D22" s="0">
-        <v>-0.013669795403541574</v>
+        <v>-0.0068348977017707868</v>
       </c>
       <c r="E22" s="0">
-        <v>-0.001511715797430091</v>
+        <v>-0.0007558578987150455</v>
       </c>
       <c r="F22" s="0">
-        <v>-0.015380459824904436</v>
+        <v>-0.0076902299124522178</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0053883248327691868</v>
+        <v>-0.0026941624163845934</v>
       </c>
       <c r="B23" s="0">
-        <v>-0.057408428837000369</v>
+        <v>-0.028704214418500185</v>
       </c>
       <c r="C23" s="0">
-        <v>0.0083673899463372892</v>
+        <v>0.0041836949731686446</v>
       </c>
       <c r="D23" s="0">
-        <v>0.0040315040315039297</v>
+        <v>0.0020157520157519648</v>
       </c>
       <c r="E23" s="0">
-        <v>0.054763410026567871</v>
+        <v>0.027381705013283936</v>
       </c>
       <c r="F23" s="0">
-        <v>0.13159430438842212</v>
+        <v>0.065797152194211062</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.02316602316602312</v>
+        <v>0.01158301158301156</v>
       </c>
       <c r="B24" s="0">
-        <v>0.053907917943005645</v>
+        <v>0.026953958971502823</v>
       </c>
       <c r="C24" s="0">
-        <v>0.041581874915208372</v>
+        <v>0.020790937457604186</v>
       </c>
       <c r="D24" s="0">
-        <v>0.027499303815093357</v>
+        <v>0.013749651907546678</v>
       </c>
       <c r="E24" s="0">
-        <v>0.053806167841255637</v>
+        <v>0.026903083920627818</v>
       </c>
       <c r="F24" s="0">
-        <v>0.065862662353890322</v>
+        <v>0.032931331176945161</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.077365542882784188</v>
+        <v>-0.038682771441392094</v>
       </c>
       <c r="B25" s="0">
-        <v>-0.10374660374660383</v>
+        <v>-0.051873301873301914</v>
       </c>
       <c r="C25" s="0">
-        <v>0.017606350939684323</v>
+        <v>0.0088031754698421616</v>
       </c>
       <c r="D25" s="0">
-        <v>0.046761046761046698</v>
+        <v>0.023380523380523349</v>
       </c>
       <c r="E25" s="0">
-        <v>0.050049245287340338</v>
+        <v>0.025024622643670169</v>
       </c>
       <c r="F25" s="0">
-        <v>-0.046837015587015474</v>
+        <v>-0.023418507793507737</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.055052755345153026</v>
+        <v>0.027526377672576513</v>
       </c>
       <c r="B26" s="0">
-        <v>0.044105329819615624</v>
+        <v>0.022052664909807812</v>
       </c>
       <c r="C26" s="0">
-        <v>0.0024097180959926634</v>
+        <v>0.0012048590479963317</v>
       </c>
       <c r="D26" s="0">
-        <v>0.096331727135298584</v>
+        <v>0.048165863567649292</v>
       </c>
       <c r="E26" s="0">
-        <v>0.026805499027721225</v>
+        <v>0.013402749513860612</v>
       </c>
       <c r="F26" s="0">
-        <v>-0.00064408479441152577</v>
+        <v>-0.00032204239720576289</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.022404658369570729</v>
+        <v>0.011202329184785365</v>
       </c>
       <c r="B27" s="0">
-        <v>-0.03518054395247372</v>
+        <v>-0.01759027197623686</v>
       </c>
       <c r="C27" s="0">
-        <v>0.011417539988968495</v>
+        <v>0.0057087699944842474</v>
       </c>
       <c r="D27" s="0">
-        <v>0.048906048906048827</v>
+        <v>0.024453024453024413</v>
       </c>
       <c r="E27" s="0">
-        <v>0.001085334418667705</v>
+        <v>0.00054266720933385248</v>
       </c>
       <c r="F27" s="0">
-        <v>0.097526097526097644</v>
+        <v>0.048763048763048822</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.075386327370454365</v>
+        <v>0.037693163685227182</v>
       </c>
       <c r="B28" s="0">
-        <v>-0.041285525156492975</v>
+        <v>-0.020642762578246487</v>
       </c>
       <c r="C28" s="0">
-        <v>0.073462351240129009</v>
+        <v>0.036731175620064505</v>
       </c>
       <c r="D28" s="0">
-        <v>0.08317271352985639</v>
+        <v>0.041586356764928195</v>
       </c>
       <c r="E28" s="0">
-        <v>0.010901421500499886</v>
+        <v>0.005450710750249943</v>
       </c>
       <c r="F28" s="0">
-        <v>-0.02536570183629</v>
+        <v>-0.012682850918145</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.062030075187969991</v>
+        <v>0.031015037593984995</v>
       </c>
       <c r="B29" s="0">
-        <v>0.015594348927682078</v>
+        <v>0.007797174463841039</v>
       </c>
       <c r="C29" s="0">
-        <v>-0.03909465020576125</v>
+        <v>-0.019547325102880625</v>
       </c>
       <c r="D29" s="0">
-        <v>0.021553065670712801</v>
+        <v>0.0107765328353564</v>
       </c>
       <c r="E29" s="0">
-        <v>0.089802046944904013</v>
+        <v>0.044901023472452006</v>
       </c>
       <c r="F29" s="0">
-        <v>0.034534534534534533</v>
+        <v>0.017267267267267267</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.021564421564421399</v>
+        <v>0.010782210782210699</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.061112898612898592</v>
+        <v>-0.030556449306449296</v>
       </c>
       <c r="C30" s="0">
-        <v>-0.040224748558081946</v>
+        <v>-0.020112374279040973</v>
       </c>
       <c r="D30" s="0">
-        <v>0.015687115687115616</v>
+        <v>0.0078435578435578079</v>
       </c>
       <c r="E30" s="0">
-        <v>0.079034391534391624</v>
+        <v>0.039517195767195812</v>
       </c>
       <c r="F30" s="0">
-        <v>0.028579331210910219</v>
+        <v>0.01428966560545511</v>
       </c>
     </row>
   </sheetData>

--- a/statistics/SPSS/roiHumanBody_Within-PLI_delta/roiHumanBody_Within-PLI_delta.xlsx
+++ b/statistics/SPSS/roiHumanBody_Within-PLI_delta/roiHumanBody_Within-PLI_delta.xlsx
@@ -82,8 +82,8 @@
     <col min="1" max="1" width="15.42578125" customWidth="true"/>
     <col min="2" max="2" width="16.42578125" customWidth="true"/>
     <col min="3" max="3" width="15.42578125" customWidth="true"/>
-    <col min="4" max="4" width="15.42578125" customWidth="true"/>
-    <col min="5" max="5" width="16.42578125" customWidth="true"/>
+    <col min="4" max="4" width="14.7109375" customWidth="true"/>
+    <col min="5" max="5" width="15.42578125" customWidth="true"/>
     <col min="6" max="6" width="16.42578125" customWidth="true"/>
   </cols>
   <sheetData>
@@ -109,582 +109,582 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.020974099099099086</v>
+        <v>-0.041948198198198172</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.050424883758217104</v>
+        <v>-0.10084976751643421</v>
       </c>
       <c r="C2" s="0">
-        <v>-0.0075687981285704475</v>
+        <v>-0.015137596257140895</v>
       </c>
       <c r="D2" s="0">
-        <v>0.040438397581254754</v>
+        <v>0.080876795162509507</v>
       </c>
       <c r="E2" s="0">
-        <v>-0.02387684240362814</v>
+        <v>-0.04775368480725628</v>
       </c>
       <c r="F2" s="0">
-        <v>0.028738103428505912</v>
+        <v>0.057476206857011825</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.015903274890203045</v>
+        <v>0.03180654978040609</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.024164110088479823</v>
+        <v>-0.048328220176959646</v>
       </c>
       <c r="C3" s="0">
-        <v>0.047236672446756472</v>
+        <v>0.094473344893512945</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.039643635231870561</v>
+        <v>-0.079287270463741122</v>
       </c>
       <c r="E3" s="0">
-        <v>0.01847961406784937</v>
+        <v>0.036959228135698741</v>
       </c>
       <c r="F3" s="0">
-        <v>0.042531925050722036</v>
+        <v>0.085063850101444072</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.025260554672319357</v>
+        <v>-0.050521109344638715</v>
       </c>
       <c r="B4" s="0">
-        <v>0.010985797827903071</v>
+        <v>0.021971595655806142</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.020372333968825235</v>
+        <v>-0.040744667937650469</v>
       </c>
       <c r="D4" s="0">
-        <v>0.012899651788540634</v>
+        <v>0.025799303577081267</v>
       </c>
       <c r="E4" s="0">
-        <v>0.048584037253627976</v>
+        <v>0.097168074507255953</v>
       </c>
       <c r="F4" s="0">
-        <v>0.036879370212703599</v>
+        <v>0.073758740425407199</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0083542726399868927</v>
+        <v>-0.016708545279973785</v>
       </c>
       <c r="B5" s="0">
-        <v>-0.012121880177435707</v>
+        <v>-0.024243760354871413</v>
       </c>
       <c r="C5" s="0">
-        <v>0.013903222107556484</v>
+        <v>0.027806444215112969</v>
       </c>
       <c r="D5" s="0">
-        <v>0.0065269093046871063</v>
+        <v>0.013053818609374213</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.067569736227824445</v>
+        <v>-0.13513947245564889</v>
       </c>
       <c r="F5" s="0">
-        <v>0.021778239915494879</v>
+        <v>0.043556479830989758</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0068374235040902231</v>
+        <v>-0.013674847008180446</v>
       </c>
       <c r="B6" s="0">
-        <v>-0.0092770381748876751</v>
+        <v>-0.01855407634977535</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.026671476671476679</v>
+        <v>-0.053342953342953359</v>
       </c>
       <c r="D6" s="0">
-        <v>0.0094952795933186396</v>
+        <v>0.018990559186637279</v>
       </c>
       <c r="E6" s="0">
-        <v>0.047804947804947817</v>
+        <v>0.095609895609895634</v>
       </c>
       <c r="F6" s="0">
-        <v>-0.021099472488361304</v>
+        <v>-0.042198944976722608</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.023616581135378095</v>
+        <v>0.04723316227075619</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.00020749040356884962</v>
+        <v>-0.00041498080713769925</v>
       </c>
       <c r="C7" s="0">
-        <v>-0.013866680533347192</v>
+        <v>-0.027733361066694384</v>
       </c>
       <c r="D7" s="0">
-        <v>0.036243386243386244</v>
+        <v>0.072486772486772488</v>
       </c>
       <c r="E7" s="0">
-        <v>0.044738520408163257</v>
+        <v>0.089477040816326514</v>
       </c>
       <c r="F7" s="0">
-        <v>0.028424456202233994</v>
+        <v>0.056848912404467988</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.055541886424239406</v>
+        <v>0.11108377284847881</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.0022780717225162617</v>
+        <v>-0.0045561434450325233</v>
       </c>
       <c r="C8" s="0">
-        <v>0.024517090786932094</v>
+        <v>0.049034181573864188</v>
       </c>
       <c r="D8" s="0">
-        <v>-0.029855175688508984</v>
+        <v>-0.059710351377017967</v>
       </c>
       <c r="E8" s="0">
-        <v>0.015297951012236688</v>
+        <v>0.030595902024473376</v>
       </c>
       <c r="F8" s="0">
-        <v>0.033220348324514953</v>
+        <v>0.066440696649029907</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.015185335497835434</v>
+        <v>-0.030370670995670868</v>
       </c>
       <c r="B9" s="0">
-        <v>0.040679784458586304</v>
+        <v>0.081359568917172609</v>
       </c>
       <c r="C9" s="0">
-        <v>-0.025223052183836442</v>
+        <v>-0.050446104367672884</v>
       </c>
       <c r="D9" s="0">
-        <v>0.0069612412866381645</v>
+        <v>0.013922482573276329</v>
       </c>
       <c r="E9" s="0">
-        <v>0.037158466080034702</v>
+        <v>0.074316932160069404</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.0024037717751168031</v>
+        <v>-0.0048075435502336061</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.020153617002356489</v>
+        <v>-0.040307234004712977</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.070453912559175713</v>
+        <v>-0.14090782511835143</v>
       </c>
       <c r="C10" s="0">
-        <v>-0.023853445282016716</v>
+        <v>-0.047706890564033433</v>
       </c>
       <c r="D10" s="0">
-        <v>0.029154995331465899</v>
+        <v>0.058309990662931799</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.017036878147989293</v>
+        <v>-0.034073756295978586</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.0028722600151171729</v>
+        <v>-0.0057445200302343458</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.03483075566408908</v>
+        <v>0.069661511328178161</v>
       </c>
       <c r="B11" s="0">
-        <v>0.044764689501531646</v>
+        <v>0.089529379003063292</v>
       </c>
       <c r="C11" s="0">
-        <v>-0.0021807521807521713</v>
+        <v>-0.0043615043615043425</v>
       </c>
       <c r="D11" s="0">
-        <v>0.020568783068783014</v>
+        <v>0.041137566137566028</v>
       </c>
       <c r="E11" s="0">
-        <v>0.0075066137566137947</v>
+        <v>0.015013227513227589</v>
       </c>
       <c r="F11" s="0">
-        <v>0.031073350517795001</v>
+        <v>0.062146701035590002</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.016200579797071041</v>
+        <v>-0.032401159594142082</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.0017858197682759369</v>
+        <v>-0.0035716395365518738</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.031254724111866944</v>
+        <v>-0.062509448223733888</v>
       </c>
       <c r="D12" s="0">
-        <v>0.084927596769702046</v>
+        <v>0.16985519353940409</v>
       </c>
       <c r="E12" s="0">
-        <v>0.013456410386234935</v>
+        <v>0.02691282077246987</v>
       </c>
       <c r="F12" s="0">
-        <v>0.025641025641025605</v>
+        <v>0.051282051282051211</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.039767331433998188</v>
+        <v>-0.079534662867996375</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.0149354711854712</v>
+        <v>-0.029870942370942399</v>
       </c>
       <c r="C13" s="0">
-        <v>-0.031288290169869115</v>
+        <v>-0.06257658033973823</v>
       </c>
       <c r="D13" s="0">
-        <v>0.013723544973544999</v>
+        <v>0.027447089947089998</v>
       </c>
       <c r="E13" s="0">
-        <v>0.018543956043956006</v>
+        <v>0.037087912087912012</v>
       </c>
       <c r="F13" s="0">
-        <v>0.010846203828659973</v>
+        <v>0.021692407657319945</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0038265306122448883</v>
+        <v>0.0076530612244897767</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.019510582010581978</v>
+        <v>-0.039021164021163957</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.024662417519560387</v>
+        <v>-0.049324835039120773</v>
       </c>
       <c r="D14" s="0">
-        <v>0.047119598590186884</v>
+        <v>0.094239197180373768</v>
       </c>
       <c r="E14" s="0">
-        <v>-0.0017517517517517123</v>
+        <v>-0.0035035035035034245</v>
       </c>
       <c r="F14" s="0">
-        <v>-0.013975736197958416</v>
+        <v>-0.027951472395916832</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.002536085869419169</v>
+        <v>0.0050721717388383381</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.021135222524111402</v>
+        <v>-0.042270445048222804</v>
       </c>
       <c r="C15" s="0">
-        <v>0.015131081672435071</v>
+        <v>0.030262163344870141</v>
       </c>
       <c r="D15" s="0">
-        <v>-0.025273393694446311</v>
+        <v>-0.050546787388892622</v>
       </c>
       <c r="E15" s="0">
-        <v>-0.024617085891595725</v>
+        <v>-0.049234171783191449</v>
       </c>
       <c r="F15" s="0">
-        <v>0.021827819446867069</v>
+        <v>0.043655638893734139</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.018961421739199513</v>
+        <v>-0.037922843478399026</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.031596351991088817</v>
+        <v>-0.063192703982177634</v>
       </c>
       <c r="C16" s="0">
-        <v>0.028792528792528804</v>
+        <v>0.057585057585057609</v>
       </c>
       <c r="D16" s="0">
-        <v>-0.027777777777777846</v>
+        <v>-0.055555555555555691</v>
       </c>
       <c r="E16" s="0">
-        <v>0.012227595560928922</v>
+        <v>0.024455191121857844</v>
       </c>
       <c r="F16" s="0">
-        <v>-0.044889251997095175</v>
+        <v>-0.089778503994190351</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.097479423868312709</v>
+        <v>0.19495884773662542</v>
       </c>
       <c r="B17" s="0">
-        <v>-0.012962962962962954</v>
+        <v>-0.025925925925925908</v>
       </c>
       <c r="C17" s="0">
-        <v>-0.045581295581295561</v>
+        <v>-0.091162591162591122</v>
       </c>
       <c r="D17" s="0">
-        <v>-0.020309686976353686</v>
+        <v>-0.040619373952707372</v>
       </c>
       <c r="E17" s="0">
-        <v>0.0074717574717575175</v>
+        <v>0.014943514943515035</v>
       </c>
       <c r="F17" s="0">
-        <v>0.01042312153423261</v>
+        <v>0.02084624306846522</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.072397428757077914</v>
+        <v>-0.14479485751415583</v>
       </c>
       <c r="B18" s="0">
-        <v>-0.0023292357878823833</v>
+        <v>-0.0046584715757647666</v>
       </c>
       <c r="C18" s="0">
-        <v>0.0084984611128402221</v>
+        <v>0.016996922225680444</v>
       </c>
       <c r="D18" s="0">
-        <v>0.079555395731866291</v>
+        <v>0.15911079146373258</v>
       </c>
       <c r="E18" s="0">
-        <v>0.024624170655916711</v>
+        <v>0.049248341311833421</v>
       </c>
       <c r="F18" s="0">
-        <v>-0.0079312589233223874</v>
+        <v>-0.015862517846644775</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.039285714285714368</v>
+        <v>0.078571428571428736</v>
       </c>
       <c r="B19" s="0">
-        <v>-0.0044169064636901678</v>
+        <v>-0.0088338129273803356</v>
       </c>
       <c r="C19" s="0">
-        <v>0.014802500913612071</v>
+        <v>0.029605001827224142</v>
       </c>
       <c r="D19" s="0">
-        <v>-0.012113617376775271</v>
+        <v>-0.024227234753550542</v>
       </c>
       <c r="E19" s="0">
-        <v>0.018294051627384955</v>
+        <v>0.03658810325476991</v>
       </c>
       <c r="F19" s="0">
-        <v>0.041559993172896326</v>
+        <v>0.083119986345792651</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.0080372889896700161</v>
+        <v>0.016074577979340032</v>
       </c>
       <c r="B20" s="0">
-        <v>0.011628169522906323</v>
+        <v>0.023256339045812646</v>
       </c>
       <c r="C20" s="0">
-        <v>0.013439492606159259</v>
+        <v>0.026878985212318518</v>
       </c>
       <c r="D20" s="0">
-        <v>-0.0079404981365765459</v>
+        <v>-0.015880996273153092</v>
       </c>
       <c r="E20" s="0">
-        <v>-0.018416768416768398</v>
+        <v>-0.036833536833536795</v>
       </c>
       <c r="F20" s="0">
-        <v>-0.0033402249788804794</v>
+        <v>-0.0066804499577609588</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.031471031471031502</v>
+        <v>0.062942062942063004</v>
       </c>
       <c r="B21" s="0">
-        <v>-0.021926254382394705</v>
+        <v>-0.043852508764789411</v>
       </c>
       <c r="C21" s="0">
-        <v>0.11121286121286122</v>
+        <v>0.22242572242572245</v>
       </c>
       <c r="D21" s="0">
-        <v>0.06485408678391133</v>
+        <v>0.12970817356782266</v>
       </c>
       <c r="E21" s="0">
-        <v>0.021571289334447269</v>
+        <v>0.043142578668894538</v>
       </c>
       <c r="F21" s="0">
-        <v>0.0077980911314244061</v>
+        <v>0.015596182262848812</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.072757631581160942</v>
+        <v>0.14551526316232188</v>
       </c>
       <c r="B22" s="0">
-        <v>-0.044486699000587882</v>
+        <v>-0.088973398001175763</v>
       </c>
       <c r="C22" s="0">
-        <v>-0.0038292147667147725</v>
+        <v>-0.0076584295334295449</v>
       </c>
       <c r="D22" s="0">
-        <v>-0.0068348977017707868</v>
+        <v>-0.013669795403541574</v>
       </c>
       <c r="E22" s="0">
-        <v>-0.0007558578987150455</v>
+        <v>-0.001511715797430091</v>
       </c>
       <c r="F22" s="0">
-        <v>-0.0076902299124522178</v>
+        <v>-0.015380459824904436</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0026941624163845934</v>
+        <v>-0.0053883248327691868</v>
       </c>
       <c r="B23" s="0">
-        <v>-0.028704214418500185</v>
+        <v>-0.057408428837000369</v>
       </c>
       <c r="C23" s="0">
-        <v>0.0041836949731686446</v>
+        <v>0.0083673899463372892</v>
       </c>
       <c r="D23" s="0">
-        <v>0.0020157520157519648</v>
+        <v>0.0040315040315039297</v>
       </c>
       <c r="E23" s="0">
-        <v>0.027381705013283936</v>
+        <v>0.054763410026567871</v>
       </c>
       <c r="F23" s="0">
-        <v>0.065797152194211062</v>
+        <v>0.13159430438842212</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.01158301158301156</v>
+        <v>0.02316602316602312</v>
       </c>
       <c r="B24" s="0">
-        <v>0.026953958971502823</v>
+        <v>0.053907917943005645</v>
       </c>
       <c r="C24" s="0">
-        <v>0.020790937457604186</v>
+        <v>0.041581874915208372</v>
       </c>
       <c r="D24" s="0">
-        <v>0.013749651907546678</v>
+        <v>0.027499303815093357</v>
       </c>
       <c r="E24" s="0">
-        <v>0.026903083920627818</v>
+        <v>0.053806167841255637</v>
       </c>
       <c r="F24" s="0">
-        <v>0.032931331176945161</v>
+        <v>0.065862662353890322</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.038682771441392094</v>
+        <v>-0.077365542882784188</v>
       </c>
       <c r="B25" s="0">
-        <v>-0.051873301873301914</v>
+        <v>-0.10374660374660383</v>
       </c>
       <c r="C25" s="0">
-        <v>0.0088031754698421616</v>
+        <v>0.017606350939684323</v>
       </c>
       <c r="D25" s="0">
-        <v>0.023380523380523349</v>
+        <v>0.046761046761046698</v>
       </c>
       <c r="E25" s="0">
-        <v>0.025024622643670169</v>
+        <v>0.050049245287340338</v>
       </c>
       <c r="F25" s="0">
-        <v>-0.023418507793507737</v>
+        <v>-0.046837015587015474</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.027526377672576513</v>
+        <v>0.055052755345153026</v>
       </c>
       <c r="B26" s="0">
-        <v>0.022052664909807812</v>
+        <v>0.044105329819615624</v>
       </c>
       <c r="C26" s="0">
-        <v>0.0012048590479963317</v>
+        <v>0.0024097180959926634</v>
       </c>
       <c r="D26" s="0">
-        <v>0.048165863567649292</v>
+        <v>0.096331727135298584</v>
       </c>
       <c r="E26" s="0">
-        <v>0.013402749513860612</v>
+        <v>0.026805499027721225</v>
       </c>
       <c r="F26" s="0">
-        <v>-0.00032204239720576289</v>
+        <v>-0.00064408479441152577</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.011202329184785365</v>
+        <v>0.022404658369570729</v>
       </c>
       <c r="B27" s="0">
-        <v>-0.01759027197623686</v>
+        <v>-0.03518054395247372</v>
       </c>
       <c r="C27" s="0">
-        <v>0.0057087699944842474</v>
+        <v>0.011417539988968495</v>
       </c>
       <c r="D27" s="0">
-        <v>0.024453024453024413</v>
+        <v>0.048906048906048827</v>
       </c>
       <c r="E27" s="0">
-        <v>0.00054266720933385248</v>
+        <v>0.001085334418667705</v>
       </c>
       <c r="F27" s="0">
-        <v>0.048763048763048822</v>
+        <v>0.097526097526097644</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.037693163685227182</v>
+        <v>0.075386327370454365</v>
       </c>
       <c r="B28" s="0">
-        <v>-0.020642762578246487</v>
+        <v>-0.041285525156492975</v>
       </c>
       <c r="C28" s="0">
-        <v>0.036731175620064505</v>
+        <v>0.073462351240129009</v>
       </c>
       <c r="D28" s="0">
-        <v>0.041586356764928195</v>
+        <v>0.08317271352985639</v>
       </c>
       <c r="E28" s="0">
-        <v>0.005450710750249943</v>
+        <v>0.010901421500499886</v>
       </c>
       <c r="F28" s="0">
-        <v>-0.012682850918145</v>
+        <v>-0.02536570183629</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.031015037593984995</v>
+        <v>0.062030075187969991</v>
       </c>
       <c r="B29" s="0">
-        <v>0.007797174463841039</v>
+        <v>0.015594348927682078</v>
       </c>
       <c r="C29" s="0">
-        <v>-0.019547325102880625</v>
+        <v>-0.03909465020576125</v>
       </c>
       <c r="D29" s="0">
-        <v>0.0107765328353564</v>
+        <v>0.021553065670712801</v>
       </c>
       <c r="E29" s="0">
-        <v>0.044901023472452006</v>
+        <v>0.089802046944904013</v>
       </c>
       <c r="F29" s="0">
-        <v>0.017267267267267267</v>
+        <v>0.034534534534534533</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.010782210782210699</v>
+        <v>0.021564421564421399</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.030556449306449296</v>
+        <v>-0.061112898612898592</v>
       </c>
       <c r="C30" s="0">
-        <v>-0.020112374279040973</v>
+        <v>-0.040224748558081946</v>
       </c>
       <c r="D30" s="0">
-        <v>0.0078435578435578079</v>
+        <v>0.015687115687115616</v>
       </c>
       <c r="E30" s="0">
-        <v>0.039517195767195812</v>
+        <v>0.079034391534391624</v>
       </c>
       <c r="F30" s="0">
-        <v>0.01428966560545511</v>
+        <v>0.028579331210910219</v>
       </c>
     </row>
   </sheetData>
